--- a/BackEnd_RMA/uploads/SPI.xlsx
+++ b/BackEnd_RMA/uploads/SPI.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Madya Kuliah\Semester 7\PT DI\BackEnd_RMA\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file rolan\File Kuliah\Manajement-Audit-PT-DI\BackEnd_RMA\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AD2F30-E3D7-4BD2-94E1-7C7E871FB23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB645A0-0CD2-4731-9EF7-6D6BB614BC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8C6427D0-B0C2-4D4B-AB94-AF9B666D475E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8C6427D0-B0C2-4D4B-AB94-AF9B666D475E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Data &amp; Document Needed</t>
   </si>
@@ -88,9 +79,6 @@
   </si>
   <si>
     <t>saya satu dua tida</t>
-  </si>
-  <si>
-    <t>qwer</t>
   </si>
   <si>
     <t>2024/09/20'</t>
@@ -463,23 +451,23 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -519,13 +507,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
+      <c r="G2">
+        <v>32131</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -534,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -545,13 +533,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="G3">
+        <v>23213</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -560,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -571,13 +559,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
+      <c r="G4">
+        <v>21312</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -586,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -597,13 +585,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
+      <c r="G5">
+        <v>21321</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -612,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -623,13 +611,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
+      <c r="G6">
+        <v>21312</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -638,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -649,13 +637,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
+      <c r="G7">
+        <v>21332</v>
       </c>
       <c r="H7">
         <v>4</v>

--- a/BackEnd_RMA/uploads/SPI.xlsx
+++ b/BackEnd_RMA/uploads/SPI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file rolan\File Kuliah\Manajement-Audit-PT-DI\BackEnd_RMA\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file rolan\File Kuliah\KP\BackEnd_RMA\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB645A0-0CD2-4731-9EF7-6D6BB614BC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF29C987-43D5-49DC-A655-30DDC9FC312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8C6427D0-B0C2-4D4B-AB94-AF9B666D475E}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,9 +512,6 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>32131</v>
-      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -538,9 +535,6 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>23213</v>
-      </c>
       <c r="H3">
         <v>2</v>
       </c>
@@ -564,9 +558,6 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
-        <v>21312</v>
-      </c>
       <c r="H4">
         <v>3</v>
       </c>
@@ -590,9 +581,6 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
-        <v>21321</v>
-      </c>
       <c r="H5">
         <v>3</v>
       </c>
@@ -616,9 +604,6 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6">
-        <v>21312</v>
-      </c>
       <c r="H6">
         <v>4</v>
       </c>
@@ -641,9 +626,6 @@
       </c>
       <c r="F7" t="s">
         <v>17</v>
-      </c>
-      <c r="G7">
-        <v>21332</v>
       </c>
       <c r="H7">
         <v>4</v>
